--- a/Phenoloxidase Activity data/34. AEG 34 (91166).xlsx
+++ b/Phenoloxidase Activity data/34. AEG 34 (91166).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -213,7 +213,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -418,11 +417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405816024"/>
-        <c:axId val="405806224"/>
+        <c:axId val="244813800"/>
+        <c:axId val="244815368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405816024"/>
+        <c:axId val="244813800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,12 +478,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405806224"/>
+        <c:crossAx val="244815368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405806224"/>
+        <c:axId val="244815368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405816024"/>
+        <c:crossAx val="244813800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -605,7 +604,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -810,11 +808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405812888"/>
-        <c:axId val="401342312"/>
+        <c:axId val="420230400"/>
+        <c:axId val="420232360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405812888"/>
+        <c:axId val="420230400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,12 +869,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401342312"/>
+        <c:crossAx val="420232360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401342312"/>
+        <c:axId val="420232360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405812888"/>
+        <c:crossAx val="420230400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -997,7 +995,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1202,11 +1199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401345056"/>
-        <c:axId val="401343096"/>
+        <c:axId val="301208216"/>
+        <c:axId val="301204688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401345056"/>
+        <c:axId val="301208216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,12 +1260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401343096"/>
+        <c:crossAx val="301204688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401343096"/>
+        <c:axId val="301204688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401345056"/>
+        <c:crossAx val="301208216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1389,7 +1386,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1594,11 +1590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405814848"/>
-        <c:axId val="405804656"/>
+        <c:axId val="244812232"/>
+        <c:axId val="244814584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405814848"/>
+        <c:axId val="244812232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,12 +1651,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405804656"/>
+        <c:crossAx val="244814584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405804656"/>
+        <c:axId val="244814584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405814848"/>
+        <c:crossAx val="244812232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1781,7 +1777,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1986,11 +1981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405810536"/>
-        <c:axId val="405805048"/>
+        <c:axId val="300415792"/>
+        <c:axId val="300411088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405810536"/>
+        <c:axId val="300415792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,12 +2042,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405805048"/>
+        <c:crossAx val="300411088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405805048"/>
+        <c:axId val="300411088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405810536"/>
+        <c:crossAx val="300415792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2173,7 +2168,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2378,11 +2372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405806616"/>
-        <c:axId val="405805440"/>
+        <c:axId val="300411872"/>
+        <c:axId val="300413440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405806616"/>
+        <c:axId val="300411872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,12 +2433,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405805440"/>
+        <c:crossAx val="300413440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405805440"/>
+        <c:axId val="300413440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405806616"/>
+        <c:crossAx val="300411872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2565,7 +2559,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2770,11 +2763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405816416"/>
-        <c:axId val="405813672"/>
+        <c:axId val="300416184"/>
+        <c:axId val="244079824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405816416"/>
+        <c:axId val="300416184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,12 +2824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405813672"/>
+        <c:crossAx val="244079824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405813672"/>
+        <c:axId val="244079824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,7 +2886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405816416"/>
+        <c:crossAx val="300416184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2957,7 +2950,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3162,11 +3154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405808184"/>
-        <c:axId val="405815240"/>
+        <c:axId val="244080216"/>
+        <c:axId val="244081392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405808184"/>
+        <c:axId val="244080216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,12 +3215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405815240"/>
+        <c:crossAx val="244081392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405815240"/>
+        <c:axId val="244081392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +3277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405808184"/>
+        <c:crossAx val="244080216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3349,7 +3341,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3554,11 +3545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405810928"/>
-        <c:axId val="405808968"/>
+        <c:axId val="244079432"/>
+        <c:axId val="244078648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405810928"/>
+        <c:axId val="244079432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3615,12 +3606,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405808968"/>
+        <c:crossAx val="244078648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405808968"/>
+        <c:axId val="244078648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3677,7 +3668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405810928"/>
+        <c:crossAx val="244079432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3741,7 +3732,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3946,11 +3936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405815632"/>
-        <c:axId val="405807008"/>
+        <c:axId val="244080608"/>
+        <c:axId val="420231184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405815632"/>
+        <c:axId val="244080608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,12 +3997,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405807008"/>
+        <c:crossAx val="420231184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405807008"/>
+        <c:axId val="420231184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,7 +4059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405815632"/>
+        <c:crossAx val="244080608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4133,7 +4123,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4338,11 +4327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405810144"/>
-        <c:axId val="405811320"/>
+        <c:axId val="420235496"/>
+        <c:axId val="420233928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405810144"/>
+        <c:axId val="420235496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,12 +4388,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405811320"/>
+        <c:crossAx val="420233928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405811320"/>
+        <c:axId val="420233928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +4450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405810144"/>
+        <c:crossAx val="420235496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13012,7 +13001,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
